--- a/project/uploads/93/split_output/24.xlsx
+++ b/project/uploads/93/split_output/24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E66B57-71BC-4212-96B2-E2F2AB33157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABAAF66-8ABD-4F17-9BD0-E969A6A56DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AFC57D49-3A6C-49B9-BFD6-70C30CB9F039}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8170" xr2:uid="{197E72E1-593B-4731-BDDF-384241988D31}"/>
   </bookViews>
   <sheets>
     <sheet name="24" sheetId="1" r:id="rId1"/>
@@ -2194,7 +2194,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{93310DD5-2B88-4897-B563-AA4975BF31BB}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{6183F37F-6326-4AE1-A513-51DD2703AAAE}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7805,7 +7805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A6971-A120-4B8F-8E1D-1CCCC2F1D8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95653725-6CD0-4266-9BFC-3E9D3BA4E81B}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7815,23 +7815,23 @@
       <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="9"/>
-    <col min="2" max="2" width="6.5546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10" style="9"/>
-    <col min="4" max="4" width="4.6640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="10" style="9"/>
-    <col min="7" max="7" width="13.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="9" customWidth="1"/>
-    <col min="11" max="18" width="10" style="9"/>
-    <col min="19" max="19" width="9.44140625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="10" style="9"/>
+    <col min="1" max="1" width="9.81640625" style="9"/>
+    <col min="2" max="2" width="6.36328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="9"/>
+    <col min="4" max="4" width="4.6328125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" style="9"/>
+    <col min="7" max="7" width="13.1796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="9" customWidth="1"/>
+    <col min="11" max="18" width="9.81640625" style="9"/>
+    <col min="19" max="19" width="9.26953125" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="9.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
@@ -7934,7 +7934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="13">
         <v>1</v>
@@ -7984,7 +7984,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="13">
         <v>2</v>
@@ -8028,7 +8028,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="13">
         <v>3</v>
@@ -8078,7 +8078,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="13">
         <v>4</v>
@@ -8128,7 +8128,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="16">
         <v>5</v>
@@ -8182,7 +8182,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -8224,7 +8224,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="13">
         <v>6</v>
@@ -8274,7 +8274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="13">
         <v>7</v>
@@ -8324,7 +8324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="16">
         <v>8</v>
@@ -8378,7 +8378,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
@@ -8420,7 +8420,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="13">
         <v>9</v>
@@ -8470,7 +8470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="13">
         <v>10</v>
@@ -8520,7 +8520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="13">
         <v>11</v>
@@ -8570,7 +8570,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="13">
         <v>12</v>
@@ -8620,7 +8620,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="13">
         <v>13</v>
@@ -8660,7 +8660,7 @@
       <c r="T17" s="25"/>
       <c r="U17" s="26"/>
     </row>
-    <row r="18" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="16">
         <v>14</v>
@@ -8714,7 +8714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -8760,7 +8760,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -8806,7 +8806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="13">
         <v>15</v>
@@ -8856,7 +8856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="13">
         <v>16</v>
@@ -8894,7 +8894,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="13">
         <v>17</v>
@@ -8944,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="13">
         <v>18</v>
@@ -8978,7 +8978,7 @@
       <c r="T24" s="33"/>
       <c r="U24" s="34"/>
     </row>
-    <row r="25" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="13">
         <v>19</v>
@@ -9016,7 +9016,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="13">
         <v>20</v>
@@ -9066,7 +9066,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="13">
         <v>21</v>
@@ -9104,7 +9104,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="13">
         <v>22</v>
@@ -9138,7 +9138,7 @@
       <c r="T28" s="33"/>
       <c r="U28" s="34"/>
     </row>
-    <row r="29" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="13">
         <v>23</v>
@@ -9172,7 +9172,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="13">
         <v>24</v>
@@ -9222,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="13">
         <v>25</v>
@@ -9272,7 +9272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="13">
         <v>26</v>
@@ -9308,7 +9308,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="13">
         <v>27</v>
@@ -9408,7 +9408,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20" t="s">
@@ -9510,7 +9510,7 @@
       <c r="T37" s="40"/>
       <c r="U37" s="19"/>
     </row>
-    <row r="38" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="13">
         <v>30</v>
@@ -9542,8 +9542,8 @@
       <c r="T38" s="4"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="41" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>83</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="27.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="13">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="13">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="13">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="13">
         <v>3</v>
@@ -9797,7 +9797,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="13">
         <v>4</v>
@@ -9847,7 +9847,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="16">
         <v>5</v>
@@ -9901,7 +9901,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
@@ -9943,7 +9943,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="13">
         <v>6</v>
@@ -9993,7 +9993,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="13">
         <v>7</v>
@@ -10043,7 +10043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="16">
         <v>8</v>
@@ -10097,7 +10097,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
@@ -10139,7 +10139,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="13">
         <v>9</v>
@@ -10189,7 +10189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="13">
         <v>10</v>
@@ -10239,7 +10239,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="13">
         <v>11</v>
@@ -10289,7 +10289,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="13">
         <v>12</v>
@@ -10339,7 +10339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="13">
         <v>13</v>
@@ -10377,7 +10377,7 @@
       <c r="T58" s="4"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
       <c r="B59" s="16">
         <v>14</v>
@@ -10431,7 +10431,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -10477,7 +10477,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -10523,7 +10523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="13">
         <v>15</v>
@@ -10573,7 +10573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="13">
         <v>16</v>
@@ -10611,7 +10611,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="13">
         <v>17</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="13">
         <v>18</v>
@@ -10695,7 +10695,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="34"/>
     </row>
-    <row r="66" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="13">
         <v>19</v>
@@ -10733,7 +10733,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="5"/>
     </row>
-    <row r="67" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="13">
         <v>20</v>
@@ -10783,7 +10783,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="13">
         <v>21</v>
@@ -10821,7 +10821,7 @@
       <c r="T68" s="4"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
       <c r="B69" s="13">
         <v>22</v>
@@ -10855,7 +10855,7 @@
       <c r="T69" s="33"/>
       <c r="U69" s="34"/>
     </row>
-    <row r="70" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="13">
         <v>23</v>
@@ -10889,7 +10889,7 @@
       <c r="T70" s="4"/>
       <c r="U70" s="5"/>
     </row>
-    <row r="71" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="13">
         <v>24</v>
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
       <c r="B72" s="13">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
       <c r="B73" s="13">
         <v>26</v>
@@ -11027,7 +11027,7 @@
       <c r="T73" s="4"/>
       <c r="U73" s="5"/>
     </row>
-    <row r="74" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
       <c r="B74" s="13">
         <v>27</v>
@@ -11127,7 +11127,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20" t="s">
@@ -11229,7 +11229,7 @@
       <c r="T78" s="40"/>
       <c r="U78" s="40"/>
     </row>
-    <row r="79" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="45"/>
       <c r="B79" s="13">
         <v>30</v>
@@ -11524,7 +11524,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K1" location="目录!A1" display="返回" xr:uid="{91A25C31-85F7-4943-A396-3F7DEEC536CD}"/>
+    <hyperlink ref="K1" location="目录!A1" display="返回" xr:uid="{7A8B28D5-3F7A-424F-A9DB-51997B60FAB7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
